--- a/UMCC Tracker.xlsx
+++ b/UMCC Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="186">
   <si>
     <t>Tag</t>
   </si>
@@ -52,18 +52,6 @@
     <t>WEAPONS JUNGLE INTRO FEX SAFETY/LOG VIC</t>
   </si>
   <si>
-    <t>NOV 17 UET PAX D/O</t>
-  </si>
-  <si>
-    <t>WPNS GUN TRUCK</t>
-  </si>
-  <si>
-    <t>UET 17 NOV SAFETY VIC</t>
-  </si>
-  <si>
-    <t>NOV 17 UET PAX P/U</t>
-  </si>
-  <si>
     <t>KEYSTONE CMP SHOOT AMMO P/S * D/O</t>
   </si>
   <si>
@@ -175,18 +163,6 @@
     <t>T221028-00037</t>
   </si>
   <si>
-    <t>T221005-00056</t>
-  </si>
-  <si>
-    <t>T221114-00028</t>
-  </si>
-  <si>
-    <t>T221108-00024</t>
-  </si>
-  <si>
-    <t>T221005-00064</t>
-  </si>
-  <si>
     <t>T221102-00084</t>
   </si>
   <si>
@@ -292,7 +268,13 @@
     <t>T221108-00454</t>
   </si>
   <si>
-    <t xml:space="preserve"> (2) HIGHBACK</t>
+    <t>(2) HIGHBACK</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUTTON </t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -304,18 +286,6 @@
     <t>00:00 14 Nov 2022</t>
   </si>
   <si>
-    <t>05:15 17 Nov 2022</t>
-  </si>
-  <si>
-    <t>08:00 17 Nov 2022</t>
-  </si>
-  <si>
-    <t>10:00 17 Nov 2022</t>
-  </si>
-  <si>
-    <t>15:00 17 Nov 2022</t>
-  </si>
-  <si>
     <t>07:00 18 Nov 2022</t>
   </si>
   <si>
@@ -415,45 +385,42 @@
     <t>V34 CAMP SCHWAB MOTORPOOL BLDG 3252</t>
   </si>
   <si>
-    <t>BARRACKS 3409 CAMP SCHWAB</t>
+    <t>CAMP SCHWAB ASP</t>
+  </si>
+  <si>
+    <t>JWTC</t>
+  </si>
+  <si>
+    <t>CAMP SCHWAB CTA 4C</t>
+  </si>
+  <si>
+    <t>CAMP SCHWAB JWTC</t>
+  </si>
+  <si>
+    <t>K5R KADENA AB</t>
+  </si>
+  <si>
+    <t>V34 CAMP SCHWAB RANGE 13</t>
   </si>
   <si>
     <t>V34 CAMP SCHWAB BARRACKS BUILDING 3409</t>
   </si>
   <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>4TH MARINES MOTORPOOL BLDG 3270</t>
+  </si>
+  <si>
+    <t>CAMP SCHWAB BASE THEATER</t>
+  </si>
+  <si>
+    <t>4TH MARINES REG MOTORPOOL BUILDING 3270</t>
+  </si>
+  <si>
     <t>CAMP HANSEN POOL</t>
   </si>
   <si>
-    <t>CAMP SCHWAB ASP</t>
-  </si>
-  <si>
-    <t>JWTC</t>
-  </si>
-  <si>
-    <t>CAMP SCHWAB CTA 4C</t>
-  </si>
-  <si>
-    <t>CAMP SCHWAB JWTC</t>
-  </si>
-  <si>
-    <t>K5R KADENA AB</t>
-  </si>
-  <si>
-    <t>V34 CAMP SCHWAB RANGE 13</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>4TH MARINES MOTORPOOL BLDG 3270</t>
-  </si>
-  <si>
-    <t>CAMP SCHWAB BASE THEATER</t>
-  </si>
-  <si>
-    <t>4TH MARINES REG MOTORPOOL BUILDING 3270</t>
-  </si>
-  <si>
     <t>CAMP SCHWAB BARRACKS BUILDING 3409</t>
   </si>
   <si>
@@ -469,15 +436,6 @@
     <t>05:00 18 Nov 2022</t>
   </si>
   <si>
-    <t>06:15 17 Nov 2022</t>
-  </si>
-  <si>
-    <t>16:30 17 Nov 2022</t>
-  </si>
-  <si>
-    <t>16:00 17 Nov 2022</t>
-  </si>
-  <si>
     <t>08:00 21 Nov 2022</t>
   </si>
   <si>
@@ -562,12 +520,6 @@
     <t>CAMP SCHWAB CTA 4B/4C</t>
   </si>
   <si>
-    <t>BLDG 2354 CAMP HANSEN</t>
-  </si>
-  <si>
-    <t>CAMP HANSEN</t>
-  </si>
-  <si>
     <t>CAMP SCHWAB R13</t>
   </si>
   <si>
@@ -610,10 +562,16 @@
     <t>Reviewed</t>
   </si>
   <si>
+    <t xml:space="preserve"> PENIS</t>
+  </si>
+  <si>
+    <t>m8y</t>
+  </si>
+  <si>
     <t>UMCC Tracker</t>
   </si>
   <si>
-    <t>Updated 2022-11-14 21:59:10.812697</t>
+    <t>Updated 2023-01-04 12:38:03.344441</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1035,7 +993,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1049,7 +1007,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1098,31 +1056,31 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1">
@@ -1130,31 +1088,31 @@
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1162,31 +1120,31 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1">
@@ -1194,31 +1152,31 @@
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1226,31 +1184,31 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1">
@@ -1258,31 +1216,31 @@
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1290,31 +1248,31 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1">
@@ -1322,31 +1280,31 @@
         <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1354,31 +1312,31 @@
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1">
@@ -1386,31 +1344,31 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1418,31 +1376,31 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1">
@@ -1450,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1482,31 +1440,31 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1">
@@ -1514,31 +1472,31 @@
         <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1546,31 +1504,31 @@
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1">
@@ -1578,31 +1536,31 @@
         <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1610,31 +1568,31 @@
         <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1">
@@ -1642,31 +1600,31 @@
         <v>27</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1674,31 +1632,31 @@
         <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1">
@@ -1706,31 +1664,31 @@
         <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>131</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1738,31 +1696,31 @@
         <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1">
@@ -1770,31 +1728,31 @@
         <v>31</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>134</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1802,31 +1760,31 @@
         <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1">
@@ -1834,31 +1792,31 @@
         <v>33</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1866,31 +1824,31 @@
         <v>34</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1">
@@ -1898,31 +1856,31 @@
         <v>35</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1930,31 +1888,31 @@
         <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>135</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1">
@@ -1962,31 +1920,31 @@
         <v>37</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1994,31 +1952,31 @@
         <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="H32" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1">
@@ -2026,31 +1984,31 @@
         <v>39</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2058,31 +2016,31 @@
         <v>40</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1">
@@ -2090,31 +2048,31 @@
         <v>41</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>135</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2122,31 +2080,31 @@
         <v>42</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="4" customFormat="1">
@@ -2154,31 +2112,31 @@
         <v>43</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2186,31 +2144,31 @@
         <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="4" customFormat="1">
@@ -2218,31 +2176,31 @@
         <v>45</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2250,159 +2208,31 @@
         <v>46</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>135</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="4" customFormat="1">
-      <c r="A41" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="4" customFormat="1">
-      <c r="A43" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
